--- a/系统设计/数据库/数据库字典说明.xlsx
+++ b/系统设计/数据库/数据库字典说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12375"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
   <si>
     <t>食品表</t>
   </si>
@@ -42,6 +42,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>number（10）</t>
+  </si>
+  <si>
     <t>食品名称</t>
   </si>
   <si>
@@ -57,7 +60,7 @@
     <t>picture_path</t>
   </si>
   <si>
-    <t>vchar（100）</t>
+    <t>vchar（50）</t>
   </si>
   <si>
     <t>添加时间</t>
@@ -99,6 +102,15 @@
     <t>折扣百分比，如填：88 ，等于单价*0.88</t>
   </si>
   <si>
+    <t>商户号</t>
+  </si>
+  <si>
+    <t>merch_id</t>
+  </si>
+  <si>
+    <t>vchar（10）</t>
+  </si>
+  <si>
     <t>食品详情表</t>
   </si>
   <si>
@@ -141,82 +153,199 @@
     <t>销售数量</t>
   </si>
   <si>
+    <t>订单表</t>
+  </si>
+  <si>
+    <t>t_order</t>
+  </si>
+  <si>
+    <t>座位号</t>
+  </si>
+  <si>
+    <t>seat_id</t>
+  </si>
+  <si>
+    <t>vchar（4）</t>
+  </si>
+  <si>
+    <t>下单时间</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>number（3）</t>
+  </si>
+  <si>
+    <t>交易金额</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>所有菜单金额相加 后乘以折扣 单位分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百分比 举例：78  =78%  </t>
+  </si>
+  <si>
+    <t>付款状态</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>0：未付款，1：已付款</t>
+  </si>
+  <si>
+    <t>已点菜单表</t>
+  </si>
+  <si>
+    <t>t_order_item</t>
+  </si>
+  <si>
+    <t>食品编号</t>
+  </si>
+  <si>
+    <t>t_goods_id</t>
+  </si>
+  <si>
+    <t>合计金额</t>
+  </si>
+  <si>
+    <t>食品价格*食品折扣*数量*折扣 单位分</t>
+  </si>
+  <si>
+    <t>订单号</t>
+  </si>
+  <si>
+    <t>t_order_id</t>
+  </si>
+  <si>
+    <t>商户信息表</t>
+  </si>
+  <si>
+    <t>t_merch_info</t>
+  </si>
+  <si>
+    <t>商户名称</t>
+  </si>
+  <si>
+    <t>merch_name</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>身份证号码</t>
+  </si>
+  <si>
+    <t>id_card</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>weixin</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>用户表</t>
+  </si>
+  <si>
+    <t>t_user</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>vchar（15）</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>passwd</t>
+  </si>
+  <si>
+    <t>商户收款信息表</t>
+  </si>
+  <si>
+    <t>户名</t>
+  </si>
+  <si>
+    <t>开户行名称</t>
+  </si>
+  <si>
+    <t>开户行行号</t>
+  </si>
+  <si>
+    <t>卡号</t>
+  </si>
+  <si>
+    <t>座位状态表</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>vchar（1）</t>
+  </si>
+  <si>
+    <t>0：待客;1：已点;</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>已点状态才有订单号</t>
+  </si>
+  <si>
     <t>购物车表</t>
   </si>
   <si>
-    <t>商户号</t>
-  </si>
-  <si>
-    <t>座位号</t>
-  </si>
-  <si>
-    <t>下单时间</t>
-  </si>
-  <si>
-    <t>订单号</t>
-  </si>
-  <si>
-    <t>交易金额</t>
-  </si>
-  <si>
     <t>优惠金额</t>
-  </si>
-  <si>
-    <t>付款状态</t>
-  </si>
-  <si>
-    <t>已点菜单表</t>
-  </si>
-  <si>
-    <t>食品编号</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>商户信息表</t>
-  </si>
-  <si>
-    <t>商户名称</t>
-  </si>
-  <si>
-    <t>联系人</t>
-  </si>
-  <si>
-    <t>电话</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>身份证号码</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>qq</t>
-  </si>
-  <si>
-    <t>微信</t>
-  </si>
-  <si>
-    <t>商户收款信息表</t>
-  </si>
-  <si>
-    <t>户名</t>
-  </si>
-  <si>
-    <t>开户行名称</t>
-  </si>
-  <si>
-    <t>开户行行号</t>
-  </si>
-  <si>
-    <t>卡号</t>
   </si>
 </sst>
 </file>
@@ -224,10 +353,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -238,16 +367,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,22 +428,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,6 +481,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -374,13 +510,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -397,13 +526,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,55 +622,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,24 +646,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -511,36 +664,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -566,18 +707,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,16 +736,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,31 +784,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,149 +840,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,9 +996,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1190,10 +1316,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="28" customHeight="1" outlineLevelCol="6"/>
@@ -1229,103 +1355,879 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" ht="42" customHeight="1" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:4">
+      <c r="A44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:4">
+      <c r="A45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:4">
+      <c r="A48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:4">
+      <c r="A49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:4">
+      <c r="A50" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:4">
+      <c r="A53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:4">
+      <c r="A54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:4">
+      <c r="A55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:4">
+      <c r="A56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:4">
+      <c r="A57" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:4">
+      <c r="A58" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:4">
+      <c r="A59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:4">
+      <c r="A60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:4">
+      <c r="A61" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:4">
+      <c r="A62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:4">
+      <c r="A63" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:3">
+      <c r="A64" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:4">
+      <c r="A68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:4">
+      <c r="A69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:4">
+      <c r="A70" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:4">
+      <c r="A71" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:4">
+      <c r="A72" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:4">
+      <c r="A75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:4">
+      <c r="A76" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:4">
+      <c r="A77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:4">
+      <c r="A78" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:4">
+      <c r="A79" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:4">
+      <c r="A80" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:4">
+      <c r="A81" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:4">
+      <c r="A82" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="28" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.25" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
@@ -1339,51 +2241,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="5" t="s">
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:4">
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1397,61 +2299,61 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="5" t="s">
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:1">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" customHeight="1" spans="1:4">
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A29" s="4" t="s">
         <v>2</v>
       </c>
@@ -1465,81 +2367,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="5" t="s">
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="5" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:4">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" customHeight="1" spans="1:4">
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A41" s="4" t="s">
         <v>2</v>
       </c>
@@ -1553,57 +2455,57 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="5" t="s">
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:4">
-      <c r="A44" s="5" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:4">
-      <c r="A45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:4">
-      <c r="A46" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:4">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" customHeight="1" spans="1:4">
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A49" s="4" t="s">
         <v>2</v>
       </c>
@@ -1617,97 +2519,97 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:4">
-      <c r="A50" s="5" t="s">
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:4">
-      <c r="A51" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:4">
-      <c r="A52" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:4">
-      <c r="A53" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:4">
-      <c r="A54" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:4">
-      <c r="A55" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" customHeight="1" spans="1:4">
-      <c r="A56" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:4">
-      <c r="A57" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:4">
-      <c r="A58" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:4">
-      <c r="A59" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="62" customHeight="1" spans="1:4">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A51" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A54" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A57" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" customHeight="1" spans="1:4">
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A63" s="4" t="s">
         <v>2</v>
       </c>
@@ -1721,55 +2623,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:4">
-      <c r="A64" s="5" t="s">
+    <row r="64" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A64" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:4">
-      <c r="A65" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:4">
-      <c r="A66" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" customHeight="1" spans="1:4">
-      <c r="A67" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" customHeight="1" spans="1:4">
-      <c r="A68" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" customHeight="1" spans="1:4">
-      <c r="A69" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A65" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A66" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A67" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A68" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A69" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1793,22 +2695,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
